--- a/data/576/DOS/M014911.xlsx
+++ b/data/576/DOS/M014911.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,224 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>GDP In Chained (2015) Dollars</t>
-  </si>
-  <si>
-    <t>Private Consumption Expenditure</t>
-  </si>
-  <si>
-    <t>Government Consumption Expenditure</t>
-  </si>
-  <si>
-    <t>Gross Fixed Capital Formation</t>
-  </si>
-  <si>
-    <t>Changes In Inventories</t>
-  </si>
-  <si>
-    <t>Net Exports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Exports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Imports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Statistical Discrepancy</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ10"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,385 +366,521 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:62">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:62">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GDP In Chained (2015) Dollars</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>8170.2</v>
+        <v>8175.7</v>
       </c>
       <c r="C2" t="n">
-        <v>8835</v>
+        <v>8841</v>
       </c>
       <c r="D2" t="n">
-        <v>9502.4</v>
+        <v>9508.799999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>10456.5</v>
+        <v>10463.5</v>
       </c>
       <c r="F2" t="n">
-        <v>10132</v>
+        <v>10138.8</v>
       </c>
       <c r="G2" t="n">
-        <v>10925.8</v>
+        <v>10933.1</v>
       </c>
       <c r="H2" t="n">
-        <v>12038</v>
+        <v>12046.1</v>
       </c>
       <c r="I2" t="n">
-        <v>13543.8</v>
+        <v>13552.9</v>
       </c>
       <c r="J2" t="n">
-        <v>15375.9</v>
+        <v>15386.2</v>
       </c>
       <c r="K2" t="n">
-        <v>17502.9</v>
+        <v>17514.7</v>
       </c>
       <c r="L2" t="n">
-        <v>19943.2</v>
+        <v>19956.6</v>
       </c>
       <c r="M2" t="n">
-        <v>22418.9</v>
+        <v>22433.9</v>
       </c>
       <c r="N2" t="n">
-        <v>25404.1</v>
+        <v>25421.1</v>
       </c>
       <c r="O2" t="n">
-        <v>28097.6</v>
+        <v>28116.5</v>
       </c>
       <c r="P2" t="n">
-        <v>29816.5</v>
+        <v>29836.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>31003.7</v>
+        <v>31026.6</v>
       </c>
       <c r="R2" t="n">
-        <v>33309.5</v>
+        <v>33334.1</v>
       </c>
       <c r="S2" t="n">
-        <v>35592.1</v>
+        <v>35618.3</v>
       </c>
       <c r="T2" t="n">
-        <v>38360.2</v>
+        <v>38388.4</v>
       </c>
       <c r="U2" t="n">
-        <v>42025.2</v>
+        <v>42056.2</v>
       </c>
       <c r="V2" t="n">
-        <v>46275.3</v>
+        <v>46309.5</v>
       </c>
       <c r="W2" t="n">
-        <v>51280.5</v>
+        <v>51318.3</v>
       </c>
       <c r="X2" t="n">
-        <v>54922.5</v>
+        <v>54963</v>
       </c>
       <c r="Y2" t="n">
-        <v>59620.9</v>
+        <v>59664.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>64863</v>
+        <v>64910.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>64459</v>
+        <v>64506.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>65324.6</v>
+        <v>65372.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>72378.2</v>
+        <v>72431.60000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>80530.7</v>
+        <v>80590</v>
       </c>
       <c r="AE2" t="n">
-        <v>88711.5</v>
+        <v>88777</v>
       </c>
       <c r="AF2" t="n">
-        <v>97423.89999999999</v>
+        <v>97495.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>103940.1</v>
+        <v>104016.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>110841.4</v>
+        <v>110923.1</v>
       </c>
       <c r="AI2" t="n">
-        <v>123546.9</v>
+        <v>123634.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>137257.7</v>
+        <v>137352.6</v>
       </c>
       <c r="AK2" t="n">
-        <v>147141.5</v>
+        <v>147208.2</v>
       </c>
       <c r="AL2" t="n">
-        <v>158135</v>
+        <v>158206.7</v>
       </c>
       <c r="AM2" t="n">
-        <v>171291.7</v>
+        <v>171363.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>167531.2</v>
+        <v>167608.9</v>
       </c>
       <c r="AO2" t="n">
-        <v>177120.7</v>
+        <v>177193.4</v>
       </c>
       <c r="AP2" t="n">
-        <v>193130.9</v>
+        <v>193208.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>191066.3</v>
+        <v>191139.7</v>
       </c>
       <c r="AR2" t="n">
-        <v>198545.8</v>
+        <v>198638.8</v>
       </c>
       <c r="AS2" t="n">
-        <v>207551.4</v>
+        <v>207673.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>227932.1</v>
+        <v>228316.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>244705.7</v>
+        <v>245134.6</v>
       </c>
       <c r="AV2" t="n">
-        <v>266741.8</v>
+        <v>267213.3</v>
       </c>
       <c r="AW2" t="n">
-        <v>290807.6</v>
+        <v>291320</v>
       </c>
       <c r="AX2" t="n">
-        <v>296240.6</v>
+        <v>296748.7</v>
       </c>
       <c r="AY2" t="n">
-        <v>296599</v>
+        <v>297128.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>339681.9</v>
+        <v>340270.7</v>
       </c>
       <c r="BA2" t="n">
-        <v>361210.5</v>
+        <v>361418.3</v>
       </c>
       <c r="BB2" t="n">
-        <v>377326.3</v>
+        <v>377449</v>
       </c>
       <c r="BC2" t="n">
-        <v>395578.7</v>
+        <v>395633.1</v>
       </c>
       <c r="BD2" t="n">
-        <v>411156.6</v>
+        <v>411203.4</v>
       </c>
       <c r="BE2" t="n">
         <v>423444.1</v>
       </c>
       <c r="BF2" t="n">
-        <v>437540.7</v>
+        <v>438525.9</v>
       </c>
       <c r="BG2" t="n">
-        <v>457319.2</v>
+        <v>458967.5</v>
       </c>
       <c r="BH2" t="n">
-        <v>473313.8</v>
+        <v>475771.7</v>
       </c>
       <c r="BI2" t="n">
-        <v>479680.9</v>
+        <v>480984.6</v>
       </c>
       <c r="BJ2" t="n">
-        <v>453821.2</v>
+        <v>461056.9</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>496161.6</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
-      <c r="A3" s="1" t="s">
-        <v>63</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Private Consumption Expenditure</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>6948.8</v>
@@ -1133,24 +1051,29 @@
         <v>157343.7</v>
       </c>
       <c r="BF3" t="n">
-        <v>162482.6</v>
+        <v>162394.8</v>
       </c>
       <c r="BG3" t="n">
-        <v>167578.3</v>
+        <v>167567.4</v>
       </c>
       <c r="BH3" t="n">
-        <v>174236.9</v>
+        <v>174197.6</v>
       </c>
       <c r="BI3" t="n">
-        <v>179905.1</v>
+        <v>179768.6</v>
       </c>
       <c r="BJ3" t="n">
-        <v>154501.4</v>
+        <v>156632.1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>163688.3</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
-      <c r="A4" s="1" t="s">
-        <v>64</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Government Consumption Expenditure</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>658</v>
@@ -1321,24 +1244,29 @@
         <v>43152.8</v>
       </c>
       <c r="BF4" t="n">
-        <v>44808.4</v>
+        <v>44759</v>
       </c>
       <c r="BG4" t="n">
-        <v>46193.1</v>
+        <v>46294.4</v>
       </c>
       <c r="BH4" t="n">
-        <v>47652.6</v>
+        <v>47674.2</v>
       </c>
       <c r="BI4" t="n">
-        <v>49264.1</v>
+        <v>49271.9</v>
       </c>
       <c r="BJ4" t="n">
-        <v>55467.3</v>
+        <v>55838.2</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>58338.8</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
-      <c r="A5" s="1" t="s">
-        <v>65</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>643.5</v>
@@ -1509,24 +1437,29 @@
         <v>115271.1</v>
       </c>
       <c r="BF5" t="n">
-        <v>115854.3</v>
+        <v>115993.5</v>
       </c>
       <c r="BG5" t="n">
-        <v>122111.5</v>
+        <v>122111.4</v>
       </c>
       <c r="BH5" t="n">
-        <v>116818.5</v>
+        <v>115885.6</v>
       </c>
       <c r="BI5" t="n">
-        <v>118191.2</v>
+        <v>117841.1</v>
       </c>
       <c r="BJ5" t="n">
-        <v>102009.9</v>
+        <v>101156.2</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>120969.1</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Changes In Inventories</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>145.4</v>
@@ -1697,24 +1630,29 @@
         <v>-7914.5</v>
       </c>
       <c r="BF6" t="n">
-        <v>1692.1</v>
+        <v>1696.6</v>
       </c>
       <c r="BG6" t="n">
-        <v>8536.4</v>
+        <v>8544.5</v>
       </c>
       <c r="BH6" t="n">
-        <v>9957.200000000001</v>
+        <v>9967.6</v>
       </c>
       <c r="BI6" t="n">
-        <v>7223.5</v>
+        <v>7684.9</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4670.7</v>
+        <v>5956.1</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>5136.4</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
-      <c r="A7" s="1" t="s">
-        <v>67</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Net Exports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>-267</v>
@@ -1885,24 +1823,29 @@
         <v>115591</v>
       </c>
       <c r="BF7" t="n">
-        <v>114474.3</v>
+        <v>114605.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>118310.4</v>
+        <v>118602.9</v>
       </c>
       <c r="BH7" t="n">
-        <v>129109.9</v>
+        <v>129984.7</v>
       </c>
       <c r="BI7" t="n">
-        <v>128854.5</v>
+        <v>132204.2</v>
       </c>
       <c r="BJ7" t="n">
-        <v>143758.8</v>
+        <v>147020.7</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>151390.6</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Exports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>5126.5</v>
@@ -2073,24 +2016,29 @@
         <v>755359.1</v>
       </c>
       <c r="BF8" t="n">
-        <v>754563.5</v>
+        <v>755626.9</v>
       </c>
       <c r="BG8" t="n">
-        <v>808115.7</v>
+        <v>811367.3</v>
       </c>
       <c r="BH8" t="n">
-        <v>870455.7</v>
+        <v>872708.7</v>
       </c>
       <c r="BI8" t="n">
-        <v>871761.2</v>
+        <v>875365.7</v>
       </c>
       <c r="BJ8" t="n">
-        <v>834098.7</v>
+        <v>873199.3</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>932600.1</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Imports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>5393.5</v>
@@ -2261,207 +2209,215 @@
         <v>639768.1</v>
       </c>
       <c r="BF9" t="n">
-        <v>640089.1</v>
+        <v>641021.3</v>
       </c>
       <c r="BG9" t="n">
-        <v>689805.4</v>
+        <v>692764.4</v>
       </c>
       <c r="BH9" t="n">
-        <v>741345.8</v>
+        <v>742724</v>
       </c>
       <c r="BI9" t="n">
-        <v>742906.7</v>
+        <v>743161.5</v>
       </c>
       <c r="BJ9" t="n">
-        <v>690339.9</v>
+        <v>726178.6</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>781209.4</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
-      <c r="A10" s="1" t="s">
-        <v>70</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Statistical Discrepancy</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>1378.2</v>
+        <v>1383.7</v>
       </c>
       <c r="C10" t="n">
-        <v>1412.2</v>
+        <v>1418.2</v>
       </c>
       <c r="D10" t="n">
-        <v>1336.9</v>
+        <v>1343.3</v>
       </c>
       <c r="E10" t="n">
-        <v>1731.4</v>
+        <v>1738.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1537.6</v>
+        <v>1544.4</v>
       </c>
       <c r="G10" t="n">
-        <v>1731.9</v>
+        <v>1739.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1837</v>
+        <v>1845.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2293.5</v>
+        <v>2302.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2356</v>
+        <v>2366.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3165.9</v>
+        <v>3177.7</v>
       </c>
       <c r="L10" t="n">
-        <v>3667.8</v>
+        <v>3681.2</v>
       </c>
       <c r="M10" t="n">
-        <v>4143.7</v>
+        <v>4158.7</v>
       </c>
       <c r="N10" t="n">
-        <v>4789.9</v>
+        <v>4806.9</v>
       </c>
       <c r="O10" t="n">
-        <v>4498.9</v>
+        <v>4517.8</v>
       </c>
       <c r="P10" t="n">
-        <v>3800.3</v>
+        <v>3820.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3545</v>
+        <v>3567.9</v>
       </c>
       <c r="R10" t="n">
-        <v>3366.2</v>
+        <v>3390.8</v>
       </c>
       <c r="S10" t="n">
-        <v>2973.3</v>
+        <v>2999.5</v>
       </c>
       <c r="T10" t="n">
-        <v>3459.9</v>
+        <v>3488.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2931.7</v>
+        <v>2962.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2804.1</v>
+        <v>2838.3</v>
       </c>
       <c r="W10" t="n">
-        <v>4014.1</v>
+        <v>4051.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4061.6</v>
+        <v>4102.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>3729.5</v>
+        <v>3773.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>4108.3</v>
+        <v>4156</v>
       </c>
       <c r="AA10" t="n">
-        <v>5163.6</v>
+        <v>5211.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>5571.2</v>
+        <v>5619.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>6498.7</v>
+        <v>6552.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>7361.7</v>
+        <v>7421</v>
       </c>
       <c r="AE10" t="n">
-        <v>7837</v>
+        <v>7902.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>9237.200000000001</v>
+        <v>9309</v>
       </c>
       <c r="AG10" t="n">
-        <v>8744.4</v>
+        <v>8820.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>9156.700000000001</v>
+        <v>9238.4</v>
       </c>
       <c r="AI10" t="n">
-        <v>9477.700000000001</v>
+        <v>9565.299999999999</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13466.8</v>
+        <v>13561.7</v>
       </c>
       <c r="AK10" t="n">
-        <v>12926.6</v>
+        <v>12993.3</v>
       </c>
       <c r="AL10" t="n">
-        <v>12506.4</v>
+        <v>12578.1</v>
       </c>
       <c r="AM10" t="n">
-        <v>11577.9</v>
+        <v>11649.7</v>
       </c>
       <c r="AN10" t="n">
-        <v>12357</v>
+        <v>12434.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>10942.4</v>
+        <v>11015.1</v>
       </c>
       <c r="AP10" t="n">
-        <v>10961.9</v>
+        <v>11039.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6568</v>
+        <v>6641.4</v>
       </c>
       <c r="AR10" t="n">
-        <v>4751.2</v>
+        <v>4844.2</v>
       </c>
       <c r="AS10" t="n">
-        <v>8712</v>
+        <v>8834</v>
       </c>
       <c r="AT10" t="n">
-        <v>8653.299999999999</v>
+        <v>9037.299999999999</v>
       </c>
       <c r="AU10" t="n">
-        <v>8352.9</v>
+        <v>8781.799999999999</v>
       </c>
       <c r="AV10" t="n">
-        <v>6672</v>
+        <v>7143.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>4412.9</v>
+        <v>4925.3</v>
       </c>
       <c r="AX10" t="n">
-        <v>9122.700000000001</v>
+        <v>9630.799999999999</v>
       </c>
       <c r="AY10" t="n">
-        <v>4257.8</v>
+        <v>4787.2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1871.6</v>
+        <v>2460.4</v>
       </c>
       <c r="BA10" t="n">
-        <v>-3228.9</v>
+        <v>-3021.1</v>
       </c>
       <c r="BB10" t="n">
-        <v>166.3</v>
+        <v>289</v>
       </c>
       <c r="BC10" t="n">
-        <v>2222.5</v>
+        <v>2276.9</v>
       </c>
       <c r="BD10" t="n">
-        <v>3007.1</v>
+        <v>3053.9</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-1771</v>
+        <v>-923.5</v>
       </c>
       <c r="BG10" t="n">
-        <v>-5772.9</v>
+        <v>-4536.7</v>
       </c>
       <c r="BH10" t="n">
-        <v>-5437.2</v>
+        <v>-2921.2</v>
       </c>
       <c r="BI10" t="n">
-        <v>-4164.4</v>
+        <v>-6185.8</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-7416.8</v>
+        <v>-6835.4</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>-4479.3</v>
       </c>
     </row>
   </sheetData>
